--- a/Financial Services/Paycom Software.xlsx
+++ b/Financial Services/Paycom Software.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA3AAFC-B9C2-C44C-90D8-BFF4BC78A824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F691D832-00A7-5543-80A6-0784A6070921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28340" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$M$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$M$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$M$3</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">'Sheet 1'!$B$19:$M$19</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">'Sheet 1'!$B$3:$M$3</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'Sheet 1'!$B$106:$M$106</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -329,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Paycom Software</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -878,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -945,18 +965,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -966,11 +974,6 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -994,12 +997,6 @@
     <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1011,10 +1008,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1022,6 +1015,29 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2163,6 +2179,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1zha2&amp;q=XNYS%3aPAYC&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>PAYCOM SOFTWARE, INC. (XNYS:PAYC)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1zha2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>402.7799</v>
+    <v>255.82</v>
+    <v>1.4231</v>
+    <v>-5.64</v>
+    <v>-2.0555E-2</v>
+    <v>0.81</v>
+    <v>3.0140000000000002E-3</v>
+    <v>USD</v>
+    <v>Paycom Software, Inc. is a provider of a comprehensive, cloud-based human capital management (HCM) solution delivered as software-as-a-service (SaaS). The Company provides functionality and data analytics. Its solution requires virtually no customization and is based on a core system of record maintained in a single database for all HCM functions, including talent acquisition, time and labor management, payroll, talent management and human resources (HR) management applications. Its applications streamline client processes and provide clients and their employees with the ability to directly access and manage administrative processes, including applications that identify candidates, on-board employees, manage time and labor, administer payroll deductions and benefits, manage performance, terminate employees and administer post-termination health benefits such as COBRA. The Company sells its solution directly through its sales force based in offices across the United States.</v>
+    <v>6349</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>7501 W Memorial Rd, OKLAHOMA CITY, OK, 73142 US</v>
+    <v>274.2</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45055.998669397653</v>
+    <v>0</v>
+    <v>268.52</v>
+    <v>15552814206</v>
+    <v>PAYCOM SOFTWARE, INC.</v>
+    <v>PAYCOM SOFTWARE, INC.</v>
+    <v>271.88</v>
+    <v>51.583199999999998</v>
+    <v>274.38</v>
+    <v>268.74</v>
+    <v>269.55</v>
+    <v>57873090</v>
+    <v>PAYC</v>
+    <v>PAYCOM SOFTWARE, INC. (XNYS:PAYC)</v>
+    <v>680184</v>
+    <v>570435</v>
+    <v>2013</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2462,11 +2918,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M64" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P89" sqref="P89"/>
+      <selection pane="bottomRight" activeCell="R91" sqref="R91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2477,8 +2933,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2011</v>
@@ -2644,21 +3100,21 @@
         <v>3327000000</v>
       </c>
       <c r="S3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="V3" s="20" t="s">
         <v>112</v>
-      </c>
-      <c r="V3" s="20" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -2838,16 +3294,16 @@
         <v>1162477000</v>
       </c>
       <c r="S6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="T6" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="U6" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="V6" s="20" t="s">
         <v>116</v>
-      </c>
-      <c r="V6" s="20" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2950,7 +3406,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3003,16 +3459,16 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="S9" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="T9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="U9" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="U9" s="20" t="s">
+      <c r="V9" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="V9" s="20" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3154,21 +3610,21 @@
         <v>585691000</v>
       </c>
       <c r="S12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="T12" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="T12" s="20" t="s">
+      <c r="U12" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="V12" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="V12" s="20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3319,16 +3775,16 @@
         <v>996539000</v>
       </c>
       <c r="S15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="T15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="T15" s="20" t="s">
+      <c r="U15" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="U15" s="20" t="s">
+      <c r="V15" s="20" t="s">
         <v>124</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3377,15 +3833,15 @@
       </c>
       <c r="T16" s="31">
         <f>U101/M3</f>
-        <v>12.304231038279022</v>
+        <v>11.309344559189888</v>
       </c>
       <c r="U16" s="31">
         <f>U101/M28</f>
-        <v>60.133836077458604</v>
+        <v>55.271578512308587</v>
       </c>
       <c r="V16" s="32">
         <f>U101/M106</f>
-        <v>72.801979133053678</v>
+        <v>66.91541015811552</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -3470,7 +3926,7 @@
         <v>92699000</v>
       </c>
       <c r="S18" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -3520,7 +3976,7 @@
     </row>
     <row r="20" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -3898,7 +4354,7 @@
     </row>
     <row r="29" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4153,7 +4609,7 @@
     </row>
     <row r="35" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="23">
@@ -6007,7 +6463,7 @@
     </row>
     <row r="80" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:M80" si="13">B79/B3</f>
@@ -6180,10 +6636,10 @@
       <c r="M83" s="1">
         <v>-224000</v>
       </c>
-      <c r="T83" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="U83" s="35"/>
+      <c r="T83" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="U83" s="59"/>
     </row>
     <row r="84" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6225,10 +6681,10 @@
       <c r="M84" s="1">
         <v>11676000</v>
       </c>
-      <c r="T84" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="U84" s="37"/>
+      <c r="T84" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="U84" s="61"/>
     </row>
     <row r="85" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6271,7 +6727,7 @@
         <v>92</v>
       </c>
       <c r="T85" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U85" s="25">
         <f>M17</f>
@@ -6319,7 +6775,7 @@
         <v>92</v>
       </c>
       <c r="T86" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U86" s="25">
         <f>M56</f>
@@ -6367,7 +6823,7 @@
         <v>365103000</v>
       </c>
       <c r="T87" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U87" s="25">
         <f>M61</f>
@@ -6414,17 +6870,17 @@
       <c r="M88" s="1">
         <v>-132678000</v>
       </c>
-      <c r="T88" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="U88" s="39">
+      <c r="T88" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="U88" s="35">
         <f>U85/(U86+U87)</f>
         <v>8.7448275862068964E-2</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:M89" si="14">(-1*B88)/B3</f>
@@ -6481,7 +6937,7 @@
       <c r="R89" s="15"/>
       <c r="S89" s="15"/>
       <c r="T89" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U89" s="25">
         <f>M27</f>
@@ -6576,10 +7032,10 @@
       <c r="M91" s="1">
         <v>-268718000</v>
       </c>
-      <c r="T91" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="U91" s="39">
+      <c r="T91" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="U91" s="35">
         <f>U89/U90</f>
         <v>0.27770818680726322</v>
       </c>
@@ -6624,10 +7080,10 @@
       <c r="M92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T92" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="U92" s="41">
+      <c r="T92" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="U92" s="37">
         <f>U88*(1-U91)</f>
         <v>6.316317373299242E-2</v>
       </c>
@@ -6672,10 +7128,10 @@
       <c r="M93" s="1">
         <v>378110000</v>
       </c>
-      <c r="T93" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="U93" s="37"/>
+      <c r="T93" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="U93" s="61"/>
     </row>
     <row r="94" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6718,9 +7174,9 @@
         <v>-23286000</v>
       </c>
       <c r="T94" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="U94" s="42">
+        <v>135</v>
+      </c>
+      <c r="U94" s="38">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -6764,11 +7220,12 @@
       <c r="M95" s="1">
         <v>-35723000</v>
       </c>
-      <c r="T95" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="U95" s="44">
-        <v>1.39</v>
+      <c r="T95" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="U95" s="65" cm="1">
+        <f t="array" ref="U95">_FV(A1,"Beta")</f>
+        <v>1.4231</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -6812,9 +7269,9 @@
         <v>92</v>
       </c>
       <c r="T96" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="U96" s="42">
+        <v>137</v>
+      </c>
+      <c r="U96" s="38">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6858,12 +7315,12 @@
       <c r="M97" s="1">
         <v>-94652000</v>
       </c>
-      <c r="T97" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="U97" s="41">
+      <c r="T97" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="U97" s="37">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>0.1007895</v>
+        <v>0.10221445500000001</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -6906,10 +7363,10 @@
       <c r="M98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T98" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="U98" s="37"/>
+      <c r="T98" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="U98" s="61"/>
     </row>
     <row r="99" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6952,7 +7409,7 @@
         <v>384962000</v>
       </c>
       <c r="T99" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U99" s="25">
         <f>U86+U87</f>
@@ -6999,12 +7456,12 @@
       <c r="M100" s="10">
         <v>254587000</v>
       </c>
-      <c r="T100" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="U100" s="39">
+      <c r="T100" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="U100" s="35">
         <f>U99/U103</f>
-        <v>1.7109144542772862E-3</v>
+        <v>1.8611439988055522E-3</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7047,11 +7504,12 @@
       <c r="M101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T101" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="U101" s="45">
-        <v>16921000000</v>
+      <c r="T101" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="U101" s="51" cm="1">
+        <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
+        <v>15552814206</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7094,12 +7552,12 @@
       <c r="M102" s="10">
         <v>596404000</v>
       </c>
-      <c r="T102" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="U102" s="39">
+      <c r="T102" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="U102" s="35">
         <f>U101/U103</f>
-        <v>0.99828908554572271</v>
+        <v>0.99813885600119445</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7142,12 +7600,12 @@
       <c r="M103" s="1">
         <v>1812691000</v>
       </c>
-      <c r="T103" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="U103" s="46">
+      <c r="T103" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="U103" s="39">
         <f>U99+U101</f>
-        <v>16950000000</v>
+        <v>15581814206</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7190,14 +7648,14 @@
       <c r="M104" s="11">
         <v>2409095000</v>
       </c>
-      <c r="T104" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="U104" s="37"/>
+      <c r="T104" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="U104" s="61"/>
     </row>
     <row r="105" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15">
@@ -7251,11 +7709,11 @@
       <c r="R105" s="15"/>
       <c r="S105" s="15"/>
       <c r="T105" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U105" s="27">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>0.10072512457452842</v>
+        <v>0.10214177494222426</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7298,33 +7756,33 @@
       <c r="M106" s="1">
         <v>232425000</v>
       </c>
-      <c r="N106" s="47">
+      <c r="N106" s="40">
         <f>M106*(1+$U$106)</f>
         <v>277444524.91859102</v>
       </c>
-      <c r="O106" s="47">
+      <c r="O106" s="40">
         <f t="shared" ref="O106:R106" si="19">N106*(1+$U$106)</f>
         <v>331184099.8485648</v>
       </c>
-      <c r="P106" s="47">
+      <c r="P106" s="40">
         <f t="shared" si="19"/>
         <v>395332753.54663342</v>
       </c>
-      <c r="Q106" s="47">
+      <c r="Q106" s="40">
         <f t="shared" si="19"/>
         <v>471906670.93687916</v>
       </c>
-      <c r="R106" s="47">
+      <c r="R106" s="40">
         <f t="shared" si="19"/>
         <v>563312561.57468557</v>
       </c>
-      <c r="S106" s="48" t="s">
+      <c r="S106" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="T106" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="T106" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="U106" s="50">
+      <c r="U106" s="43">
         <f>(SUM(N4:R4)/5)</f>
         <v>0.19369484745010665</v>
       </c>
@@ -7343,150 +7801,151 @@
       <c r="K107" s="13"/>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
-      <c r="N107" s="48"/>
-      <c r="O107" s="48"/>
-      <c r="P107" s="48"/>
-      <c r="Q107" s="48"/>
-      <c r="R107" s="51">
+      <c r="N107" s="41"/>
+      <c r="O107" s="41"/>
+      <c r="P107" s="41"/>
+      <c r="Q107" s="41"/>
+      <c r="R107" s="44">
         <f>R106*(1+U107)/(U108-U107)</f>
-        <v>7624885120.4699163</v>
-      </c>
-      <c r="S107" s="52" t="s">
+        <v>7484859870.6277618</v>
+      </c>
+      <c r="S107" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="T107" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="T107" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="U107" s="54">
+      <c r="U107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="N108" s="51">
+      <c r="N108" s="44">
         <f t="shared" ref="N108:P108" si="20">N107+N106</f>
         <v>277444524.91859102</v>
       </c>
-      <c r="O108" s="51">
+      <c r="O108" s="44">
         <f t="shared" si="20"/>
         <v>331184099.8485648</v>
       </c>
-      <c r="P108" s="51">
+      <c r="P108" s="44">
         <f t="shared" si="20"/>
         <v>395332753.54663342</v>
       </c>
-      <c r="Q108" s="51">
+      <c r="Q108" s="44">
         <f>Q107+Q106</f>
         <v>471906670.93687916</v>
       </c>
-      <c r="R108" s="51">
+      <c r="R108" s="44">
         <f>R107+R106</f>
-        <v>8188197682.0446014</v>
-      </c>
-      <c r="S108" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="T108" s="55" t="s">
+        <v>8048172432.2024479</v>
+      </c>
+      <c r="S108" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="T108" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="U108" s="49">
+        <f>U105</f>
+        <v>0.10214177494222426</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="N109" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="U108" s="56">
-        <f>U105</f>
-        <v>0.10072512457452842</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="N109" s="57" t="s">
+      <c r="O109" s="63"/>
+    </row>
+    <row r="110" spans="1:21" ht="20" x14ac:dyDescent="0.25">
+      <c r="N110" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="O109" s="58"/>
-    </row>
-    <row r="110" spans="1:21" ht="20" x14ac:dyDescent="0.25">
-      <c r="N110" s="59" t="s">
+      <c r="O110" s="51">
+        <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
+        <v>6088401408.9610128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" ht="20" x14ac:dyDescent="0.25">
+      <c r="N111" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="O110" s="60">
-        <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>6210806261.2342186</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" ht="20" x14ac:dyDescent="0.25">
-      <c r="N111" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="O111" s="60">
+      <c r="O111" s="51">
         <f>M40</f>
         <v>400730000</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="20" x14ac:dyDescent="0.25">
-      <c r="N112" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="O112" s="60">
+      <c r="N112" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="O112" s="51">
         <f>U99</f>
         <v>29000000</v>
       </c>
     </row>
     <row r="113" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N113" s="59" t="s">
+      <c r="N113" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="O113" s="51">
+        <f>O110+O111-O112</f>
+        <v>6460131408.9610128</v>
+      </c>
+    </row>
+    <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="N114" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="O113" s="60">
-        <f>O110+O111-O112</f>
-        <v>6582536261.2342186</v>
-      </c>
-    </row>
-    <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N114" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="O114" s="61">
+      <c r="O114" s="52">
         <f>M34*(1+(5*S16))</f>
         <v>57564053.74698969</v>
       </c>
     </row>
     <row r="115" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N115" s="62" t="s">
+      <c r="N115" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="O115" s="54">
+        <f>O113/O114</f>
+        <v>112.22509514974604</v>
+      </c>
+    </row>
+    <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="N116" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="O115" s="63">
-        <f>O113/O114</f>
-        <v>114.35150641346992</v>
-      </c>
-    </row>
-    <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N116" s="64" t="s">
+      <c r="O116" s="66" cm="1">
+        <f t="array" ref="O116">_FV(A1,"Price")</f>
+        <v>268.74</v>
+      </c>
+    </row>
+    <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="N117" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="O116" s="65">
-        <v>280.51</v>
-      </c>
-    </row>
-    <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N117" s="66" t="s">
+      <c r="O117" s="56">
+        <f>O115/O116-1</f>
+        <v>-0.58240271210186045</v>
+      </c>
+    </row>
+    <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="N118" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="O117" s="67">
-        <f>O115/O116-1</f>
-        <v>-0.59234427858732341</v>
-      </c>
-    </row>
-    <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">
-      <c r="N118" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="O118" s="68" t="str">
+      <c r="O118" s="57" t="str">
         <f>IF(O115&gt;O116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="N109:O109"/>
     <mergeCell ref="T83:U83"/>
     <mergeCell ref="T84:U84"/>
     <mergeCell ref="T93:U93"/>
     <mergeCell ref="T98:U98"/>
     <mergeCell ref="T104:U104"/>
-    <mergeCell ref="N109:O109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/PAYC" display="ROIC.AI | PAYC" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Financial Services/Paycom Software.xlsx
+++ b/Financial Services/Paycom Software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F691D832-00A7-5543-80A6-0784A6070921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6DB5AC-285A-7542-B5E5-2CF35F889C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1015,6 +1015,17 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1027,17 +1038,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2300,12 +2300,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>402.7799</v>
-    <v>255.82</v>
-    <v>1.4231</v>
-    <v>-5.64</v>
-    <v>-2.0555E-2</v>
-    <v>0.81</v>
-    <v>3.0140000000000002E-3</v>
+    <v>262.11500000000001</v>
+    <v>1.4249000000000001</v>
+    <v>3.94</v>
+    <v>1.1766E-2</v>
     <v>USD</v>
     <v>Paycom Software, Inc. is a provider of a comprehensive, cloud-based human capital management (HCM) solution delivered as software-as-a-service (SaaS). The Company provides functionality and data analytics. Its solution requires virtually no customization and is based on a core system of record maintained in a single database for all HCM functions, including talent acquisition, time and labor management, payroll, talent management and human resources (HR) management applications. Its applications streamline client processes and provide clients and their employees with the ability to directly access and manage administrative processes, including applications that identify candidates, on-board employees, manage time and labor, administer payroll deductions and benefits, manage performance, terminate employees and administer post-termination health benefits such as COBRA. The Company sells its solution directly through its sales force based in offices across the United States.</v>
     <v>6349</v>
@@ -2313,25 +2311,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>7501 W Memorial Rd, OKLAHOMA CITY, OK, 73142 US</v>
-    <v>274.2</v>
+    <v>339.65</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45055.998669397653</v>
+    <v>45118.989621747656</v>
     <v>0</v>
-    <v>268.52</v>
-    <v>15552814206</v>
+    <v>331.82</v>
+    <v>19607981622</v>
     <v>PAYCOM SOFTWARE, INC.</v>
     <v>PAYCOM SOFTWARE, INC.</v>
-    <v>271.88</v>
-    <v>51.583199999999998</v>
-    <v>274.38</v>
-    <v>268.74</v>
-    <v>269.55</v>
+    <v>334.82</v>
+    <v>63.695999999999998</v>
+    <v>334.87</v>
+    <v>338.81</v>
     <v>57873090</v>
     <v>PAYC</v>
     <v>PAYCOM SOFTWARE, INC. (XNYS:PAYC)</v>
-    <v>680184</v>
-    <v>570435</v>
+    <v>2</v>
+    <v>504020</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2363,8 +2360,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2385,7 +2380,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2402,7 +2396,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2413,16 +2407,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2488,19 +2479,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2545,9 +2530,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2555,9 +2537,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2919,10 +2898,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R91" sqref="R91"/>
+      <selection pane="bottomRight" activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3833,15 +3812,15 @@
       </c>
       <c r="T16" s="31">
         <f>U101/M3</f>
-        <v>11.309344559189888</v>
+        <v>14.258089715230604</v>
       </c>
       <c r="U16" s="31">
         <f>U101/M28</f>
-        <v>55.271578512308587</v>
+        <v>69.682829186641982</v>
       </c>
       <c r="V16" s="32">
         <f>U101/M106</f>
-        <v>66.91541015811552</v>
+        <v>84.362618573733457</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -6636,10 +6615,10 @@
       <c r="M83" s="1">
         <v>-224000</v>
       </c>
-      <c r="T83" s="58" t="s">
+      <c r="T83" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="U83" s="59"/>
+      <c r="U83" s="64"/>
     </row>
     <row r="84" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6681,10 +6660,10 @@
       <c r="M84" s="1">
         <v>11676000</v>
       </c>
-      <c r="T84" s="60" t="s">
+      <c r="T84" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="U84" s="61"/>
+      <c r="U84" s="66"/>
     </row>
     <row r="85" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7128,10 +7107,10 @@
       <c r="M93" s="1">
         <v>378110000</v>
       </c>
-      <c r="T93" s="60" t="s">
+      <c r="T93" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="U93" s="61"/>
+      <c r="U93" s="66"/>
     </row>
     <row r="94" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7220,12 +7199,12 @@
       <c r="M95" s="1">
         <v>-35723000</v>
       </c>
-      <c r="T95" s="64" t="s">
+      <c r="T95" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="U95" s="65" cm="1">
+      <c r="U95" s="59" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>1.4231</v>
+        <v>1.4249000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7320,7 +7299,7 @@
       </c>
       <c r="U97" s="37">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>0.10221445500000001</v>
+        <v>0.10229194500000001</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7363,10 +7342,10 @@
       <c r="M98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T98" s="60" t="s">
+      <c r="T98" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="U98" s="61"/>
+      <c r="U98" s="66"/>
     </row>
     <row r="99" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7461,7 +7440,7 @@
       </c>
       <c r="U100" s="35">
         <f>U99/U103</f>
-        <v>1.8611439988055522E-3</v>
+        <v>1.4768053745851798E-3</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7504,12 +7483,12 @@
       <c r="M101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T101" s="64" t="s">
+      <c r="T101" s="58" t="s">
         <v>142</v>
       </c>
       <c r="U101" s="51" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>15552814206</v>
+        <v>19607981622</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7557,7 +7536,7 @@
       </c>
       <c r="U102" s="35">
         <f>U101/U103</f>
-        <v>0.99813885600119445</v>
+        <v>0.99852319462541483</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7605,7 +7584,7 @@
       </c>
       <c r="U103" s="39">
         <f>U99+U101</f>
-        <v>15581814206</v>
+        <v>19636981622</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7648,10 +7627,10 @@
       <c r="M104" s="11">
         <v>2409095000</v>
       </c>
-      <c r="T104" s="60" t="s">
+      <c r="T104" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="U104" s="61"/>
+      <c r="U104" s="66"/>
     </row>
     <row r="105" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -7713,7 +7692,7 @@
       </c>
       <c r="U105" s="27">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>0.10214177494222426</v>
+        <v>0.10223415942029199</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7807,7 +7786,7 @@
       <c r="Q107" s="41"/>
       <c r="R107" s="44">
         <f>R106*(1+U107)/(U108-U107)</f>
-        <v>7484859870.6277618</v>
+        <v>7475906774.2550144</v>
       </c>
       <c r="S107" s="45" t="s">
         <v>148</v>
@@ -7838,7 +7817,7 @@
       </c>
       <c r="R108" s="44">
         <f>R107+R106</f>
-        <v>8048172432.2024479</v>
+        <v>8039219335.8297005</v>
       </c>
       <c r="S108" s="45" t="s">
         <v>144</v>
@@ -7848,14 +7827,14 @@
       </c>
       <c r="U108" s="49">
         <f>U105</f>
-        <v>0.10214177494222426</v>
+        <v>0.10223415942029199</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="N109" s="62" t="s">
+      <c r="N109" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="O109" s="63"/>
+      <c r="O109" s="62"/>
     </row>
     <row r="110" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="N110" s="50" t="s">
@@ -7863,7 +7842,7 @@
       </c>
       <c r="O110" s="51">
         <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>6088401408.9610128</v>
+        <v>6080576463.1706457</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7890,7 +7869,7 @@
       </c>
       <c r="O113" s="51">
         <f>O110+O111-O112</f>
-        <v>6460131408.9610128</v>
+        <v>6452306463.1706457</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7908,16 +7887,16 @@
       </c>
       <c r="O115" s="54">
         <f>O113/O114</f>
-        <v>112.22509514974604</v>
+        <v>112.08916056416665</v>
       </c>
     </row>
     <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
       <c r="N116" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="O116" s="66" cm="1">
+      <c r="O116" s="60" cm="1">
         <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>268.74</v>
+        <v>338.81</v>
       </c>
     </row>
     <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7926,7 +7905,7 @@
       </c>
       <c r="O117" s="56">
         <f>O115/O116-1</f>
-        <v>-0.58240271210186045</v>
+        <v>-0.66916808664394012</v>
       </c>
     </row>
     <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">

--- a/Financial Services/Paycom Software.xlsx
+++ b/Financial Services/Paycom Software.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financial Services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6DB5AC-285A-7542-B5E5-2CF35F889C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87302752-7E6A-794C-AFAA-4F27D7820F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2301,9 +2301,9 @@
     <v>Powered by Refinitiv</v>
     <v>402.7799</v>
     <v>262.11500000000001</v>
-    <v>1.4249000000000001</v>
-    <v>3.94</v>
-    <v>1.1766E-2</v>
+    <v>1.4287000000000001</v>
+    <v>0.49</v>
+    <v>1.681E-3</v>
     <v>USD</v>
     <v>Paycom Software, Inc. is a provider of a comprehensive, cloud-based human capital management (HCM) solution delivered as software-as-a-service (SaaS). The Company provides functionality and data analytics. Its solution requires virtually no customization and is based on a core system of record maintained in a single database for all HCM functions, including talent acquisition, time and labor management, payroll, talent management and human resources (HR) management applications. Its applications streamline client processes and provide clients and their employees with the ability to directly access and manage administrative processes, including applications that identify candidates, on-board employees, manage time and labor, administer payroll deductions and benefits, manage performance, terminate employees and administer post-termination health benefits such as COBRA. The Company sells its solution directly through its sales force based in offices across the United States.</v>
     <v>6349</v>
@@ -2311,24 +2311,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>7501 W Memorial Rd, OKLAHOMA CITY, OK, 73142 US</v>
-    <v>339.65</v>
+    <v>295.26</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45118.989621747656</v>
+    <v>45149.997577395312</v>
     <v>0</v>
-    <v>331.82</v>
-    <v>19607981622</v>
+    <v>288.24</v>
+    <v>17656380000</v>
     <v>PAYCOM SOFTWARE, INC.</v>
     <v>PAYCOM SOFTWARE, INC.</v>
-    <v>334.82</v>
-    <v>63.695999999999998</v>
-    <v>334.87</v>
-    <v>338.81</v>
-    <v>57873090</v>
+    <v>288.24</v>
+    <v>53.645499999999998</v>
+    <v>291.51</v>
+    <v>292</v>
+    <v>293.5</v>
+    <v>60467050</v>
     <v>PAYC</v>
     <v>PAYCOM SOFTWARE, INC. (XNYS:PAYC)</v>
-    <v>2</v>
-    <v>504020</v>
+    <v>32</v>
+    <v>664284</v>
     <v>2013</v>
   </rv>
   <rv s="2">
@@ -2380,6 +2381,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2396,7 +2398,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2407,6 +2409,7 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
@@ -2479,13 +2482,15 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2530,6 +2535,7 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2537,6 +2543,7 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2898,10 +2905,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M125" sqref="M125"/>
+      <selection pane="bottomRight" activeCell="M122" sqref="M122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3812,15 +3819,15 @@
       </c>
       <c r="T16" s="31">
         <f>U101/M3</f>
-        <v>14.258089715230604</v>
+        <v>12.83896807633408</v>
       </c>
       <c r="U16" s="31">
         <f>U101/M28</f>
-        <v>69.682829186641982</v>
+        <v>62.747228925082361</v>
       </c>
       <c r="V16" s="32">
         <f>U101/M106</f>
-        <v>84.362618573733457</v>
+        <v>75.965924491771545</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19" x14ac:dyDescent="0.25">
@@ -7204,7 +7211,7 @@
       </c>
       <c r="U95" s="59" cm="1">
         <f t="array" ref="U95">_FV(A1,"Beta")</f>
-        <v>1.4249000000000001</v>
+        <v>1.4287000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7299,7 +7306,7 @@
       </c>
       <c r="U97" s="37">
         <f>(U94)+((U95)*(U96-U94))</f>
-        <v>0.10229194500000001</v>
+        <v>0.10245553500000001</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7440,7 +7447,7 @@
       </c>
       <c r="U100" s="35">
         <f>U99/U103</f>
-        <v>1.4768053745851798E-3</v>
+        <v>1.639772512663002E-3</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7488,7 +7495,7 @@
       </c>
       <c r="U101" s="51" cm="1">
         <f t="array" ref="U101">_FV(A1,"Market cap",TRUE)</f>
-        <v>19607981622</v>
+        <v>17656380000</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7536,7 +7543,7 @@
       </c>
       <c r="U102" s="35">
         <f>U101/U103</f>
-        <v>0.99852319462541483</v>
+        <v>0.99836022748733699</v>
       </c>
     </row>
     <row r="103" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7584,7 +7591,7 @@
       </c>
       <c r="U103" s="39">
         <f>U99+U101</f>
-        <v>19636981622</v>
+        <v>17685380000</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7692,7 +7699,7 @@
       </c>
       <c r="U105" s="27">
         <f>(U100*U92)+(U102*U97)</f>
-        <v>0.10223415942029199</v>
+        <v>0.10239110446603675</v>
       </c>
     </row>
     <row r="106" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7786,7 +7793,7 @@
       <c r="Q107" s="41"/>
       <c r="R107" s="44">
         <f>R106*(1+U107)/(U108-U107)</f>
-        <v>7475906774.2550144</v>
+        <v>7460746032.7361498</v>
       </c>
       <c r="S107" s="45" t="s">
         <v>148</v>
@@ -7817,7 +7824,7 @@
       </c>
       <c r="R108" s="44">
         <f>R107+R106</f>
-        <v>8039219335.8297005</v>
+        <v>8024058594.3108349</v>
       </c>
       <c r="S108" s="45" t="s">
         <v>144</v>
@@ -7827,7 +7834,7 @@
       </c>
       <c r="U108" s="49">
         <f>U105</f>
-        <v>0.10223415942029199</v>
+        <v>0.10239110446603675</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7842,7 +7849,7 @@
       </c>
       <c r="O110" s="51">
         <f>NPV(U108,N108,O108,P108,Q108,R108)</f>
-        <v>6080576463.1706457</v>
+        <v>6067326501.293725</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="20" x14ac:dyDescent="0.25">
@@ -7869,7 +7876,7 @@
       </c>
       <c r="O113" s="51">
         <f>O110+O111-O112</f>
-        <v>6452306463.1706457</v>
+        <v>6439056501.293725</v>
       </c>
     </row>
     <row r="114" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7887,7 +7894,7 @@
       </c>
       <c r="O115" s="54">
         <f>O113/O114</f>
-        <v>112.08916056416665</v>
+        <v>111.85898285751732</v>
       </c>
     </row>
     <row r="116" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7896,7 +7903,7 @@
       </c>
       <c r="O116" s="60" cm="1">
         <f t="array" ref="O116">_FV(A1,"Price")</f>
-        <v>338.81</v>
+        <v>292</v>
       </c>
     </row>
     <row r="117" spans="14:15" ht="20" x14ac:dyDescent="0.25">
@@ -7905,7 +7912,7 @@
       </c>
       <c r="O117" s="56">
         <f>O115/O116-1</f>
-        <v>-0.66916808664394012</v>
+        <v>-0.61692129158384479</v>
       </c>
     </row>
     <row r="118" spans="14:15" ht="20" x14ac:dyDescent="0.25">
